--- a/s1cDNASample/s1CDNASample_BrownH_01.16.20.xlsx
+++ b/s1cDNASample/s1CDNASample_BrownH_01.16.20.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="49">
   <si>
     <t xml:space="preserve">rnaDate</t>
   </si>
@@ -64,13 +64,10 @@
     <t xml:space="preserve">01.16.20</t>
   </si>
   <si>
-    <t xml:space="preserve">NEBNextPoly(A)E7490</t>
+    <t xml:space="preserve">NEBNextPoly(A)E7490L</t>
   </si>
   <si>
     <t xml:space="preserve">E7420</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No</t>
   </si>
   <si>
     <t xml:space="preserve">random</t>
@@ -176,8 +173,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
   <fonts count="7">
     <font>
@@ -264,7 +262,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -282,6 +280,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -305,12 +307,14 @@
   <dimension ref="A1:Z32"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2:H32"/>
+      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2:G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="10.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="1" style="0" width="10.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="21.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="10.61"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -380,17 +384,17 @@
       <c r="F2" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="3" t="s">
         <v>14</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>16</v>
+      <c r="I2" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
@@ -417,7 +421,7 @@
         <v>11</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>13</v>
@@ -426,19 +430,19 @@
         <v>11</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>14</v>
       </c>
       <c r="H3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="1" t="s">
-        <v>16</v>
+      <c r="I3" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -449,7 +453,7 @@
         <v>11</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>13</v>
@@ -458,19 +462,19 @@
         <v>11</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>14</v>
       </c>
       <c r="H4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="1" t="s">
-        <v>16</v>
+      <c r="I4" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -481,7 +485,7 @@
         <v>11</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>13</v>
@@ -490,19 +494,19 @@
         <v>11</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="3" t="s">
         <v>14</v>
       </c>
       <c r="H5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I5" s="1" t="s">
-        <v>16</v>
+      <c r="I5" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -513,7 +517,7 @@
         <v>11</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>13</v>
@@ -522,19 +526,19 @@
         <v>11</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="3" t="s">
         <v>14</v>
       </c>
       <c r="H6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I6" s="1" t="s">
-        <v>16</v>
+      <c r="I6" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -545,7 +549,7 @@
         <v>11</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>13</v>
@@ -554,19 +558,19 @@
         <v>11</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="3" t="s">
         <v>14</v>
       </c>
       <c r="H7" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="1" t="s">
-        <v>16</v>
+      <c r="I7" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -577,7 +581,7 @@
         <v>11</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>13</v>
@@ -586,19 +590,19 @@
         <v>11</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" s="3" t="s">
         <v>14</v>
       </c>
       <c r="H8" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I8" s="1" t="s">
-        <v>16</v>
+      <c r="I8" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -609,7 +613,7 @@
         <v>11</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>13</v>
@@ -618,19 +622,19 @@
         <v>11</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="G9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" s="3" t="s">
         <v>14</v>
       </c>
       <c r="H9" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I9" s="1" t="s">
-        <v>16</v>
+      <c r="I9" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -641,7 +645,7 @@
         <v>11</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>13</v>
@@ -650,19 +654,19 @@
         <v>11</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="G10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10" s="3" t="s">
         <v>14</v>
       </c>
       <c r="H10" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I10" s="1" t="s">
-        <v>16</v>
+      <c r="I10" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -673,7 +677,7 @@
         <v>11</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>13</v>
@@ -682,19 +686,19 @@
         <v>11</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="G11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G11" s="3" t="s">
         <v>14</v>
       </c>
       <c r="H11" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I11" s="1" t="s">
-        <v>16</v>
+      <c r="I11" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -705,7 +709,7 @@
         <v>11</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>13</v>
@@ -714,19 +718,19 @@
         <v>11</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="G12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" s="3" t="s">
         <v>14</v>
       </c>
       <c r="H12" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I12" s="1" t="s">
-        <v>16</v>
+      <c r="I12" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -737,7 +741,7 @@
         <v>11</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>13</v>
@@ -746,19 +750,19 @@
         <v>11</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="G13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G13" s="3" t="s">
         <v>14</v>
       </c>
       <c r="H13" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I13" s="1" t="s">
-        <v>16</v>
+      <c r="I13" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -769,7 +773,7 @@
         <v>11</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>13</v>
@@ -778,19 +782,19 @@
         <v>11</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="G14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G14" s="3" t="s">
         <v>14</v>
       </c>
       <c r="H14" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I14" s="1" t="s">
-        <v>16</v>
+      <c r="I14" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -801,7 +805,7 @@
         <v>11</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>13</v>
@@ -810,19 +814,19 @@
         <v>11</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G15" s="3" t="s">
         <v>14</v>
       </c>
       <c r="H15" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I15" s="1" t="s">
-        <v>16</v>
+      <c r="I15" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -833,7 +837,7 @@
         <v>11</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>13</v>
@@ -842,19 +846,19 @@
         <v>11</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="G16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G16" s="3" t="s">
         <v>14</v>
       </c>
       <c r="H16" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I16" s="1" t="s">
-        <v>16</v>
+      <c r="I16" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -865,7 +869,7 @@
         <v>11</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>13</v>
@@ -874,19 +878,19 @@
         <v>11</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="G17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G17" s="3" t="s">
         <v>14</v>
       </c>
       <c r="H17" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I17" s="1" t="s">
-        <v>16</v>
+      <c r="I17" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -897,7 +901,7 @@
         <v>11</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>13</v>
@@ -906,19 +910,19 @@
         <v>11</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="G18" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G18" s="3" t="s">
         <v>14</v>
       </c>
       <c r="H18" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I18" s="1" t="s">
-        <v>16</v>
+      <c r="I18" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -929,7 +933,7 @@
         <v>11</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>13</v>
@@ -938,19 +942,19 @@
         <v>11</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="G19" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G19" s="3" t="s">
         <v>14</v>
       </c>
       <c r="H19" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I19" s="1" t="s">
-        <v>16</v>
+      <c r="I19" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -961,7 +965,7 @@
         <v>11</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>13</v>
@@ -970,19 +974,19 @@
         <v>11</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="G20" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G20" s="3" t="s">
         <v>14</v>
       </c>
       <c r="H20" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I20" s="1" t="s">
-        <v>16</v>
+      <c r="I20" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -993,7 +997,7 @@
         <v>11</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>13</v>
@@ -1002,19 +1006,19 @@
         <v>11</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="G21" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G21" s="3" t="s">
         <v>14</v>
       </c>
       <c r="H21" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I21" s="1" t="s">
-        <v>16</v>
+      <c r="I21" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1025,7 +1029,7 @@
         <v>11</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>13</v>
@@ -1034,19 +1038,19 @@
         <v>11</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="G22" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G22" s="3" t="s">
         <v>14</v>
       </c>
       <c r="H22" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I22" s="1" t="s">
-        <v>16</v>
+      <c r="I22" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1057,7 +1061,7 @@
         <v>11</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>13</v>
@@ -1066,19 +1070,19 @@
         <v>11</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="G23" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G23" s="3" t="s">
         <v>14</v>
       </c>
       <c r="H23" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I23" s="1" t="s">
-        <v>16</v>
+      <c r="I23" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1089,7 +1093,7 @@
         <v>11</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>13</v>
@@ -1098,19 +1102,19 @@
         <v>11</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="G24" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G24" s="3" t="s">
         <v>14</v>
       </c>
       <c r="H24" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I24" s="1" t="s">
-        <v>16</v>
+      <c r="I24" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1121,7 +1125,7 @@
         <v>11</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>13</v>
@@ -1130,19 +1134,19 @@
         <v>11</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="G25" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G25" s="3" t="s">
         <v>14</v>
       </c>
       <c r="H25" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I25" s="1" t="s">
-        <v>16</v>
+      <c r="I25" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1153,7 +1157,7 @@
         <v>11</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>13</v>
@@ -1162,19 +1166,19 @@
         <v>11</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="G26" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G26" s="3" t="s">
         <v>14</v>
       </c>
       <c r="H26" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I26" s="1" t="s">
-        <v>16</v>
+      <c r="I26" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1185,7 +1189,7 @@
         <v>11</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>13</v>
@@ -1194,31 +1198,31 @@
         <v>11</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="G27" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G27" s="3" t="s">
         <v>14</v>
       </c>
       <c r="H27" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I27" s="1" t="s">
-        <v>16</v>
+      <c r="I27" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="B28" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C28" s="0" t="s">
-        <v>44</v>
-      </c>
       <c r="D28" s="2" t="s">
         <v>13</v>
       </c>
@@ -1226,31 +1230,31 @@
         <v>11</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="G28" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G28" s="3" t="s">
         <v>14</v>
       </c>
       <c r="H28" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I28" s="1" t="s">
-        <v>16</v>
+      <c r="I28" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C29" s="0" t="s">
-        <v>46</v>
-      </c>
       <c r="D29" s="2" t="s">
         <v>13</v>
       </c>
@@ -1258,30 +1262,30 @@
         <v>11</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="G29" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G29" s="3" t="s">
         <v>14</v>
       </c>
       <c r="H29" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I29" s="1" t="s">
-        <v>16</v>
+      <c r="I29" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>13</v>
@@ -1290,30 +1294,30 @@
         <v>11</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="G30" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G30" s="3" t="s">
         <v>14</v>
       </c>
       <c r="H30" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I30" s="1" t="s">
-        <v>16</v>
+      <c r="I30" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>13</v>
@@ -1322,30 +1326,30 @@
         <v>11</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="G31" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G31" s="3" t="s">
         <v>14</v>
       </c>
       <c r="H31" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I31" s="1" t="s">
-        <v>16</v>
+      <c r="I31" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>13</v>
@@ -1354,19 +1358,19 @@
         <v>11</v>
       </c>
       <c r="F32" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="G32" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G32" s="3" t="s">
         <v>14</v>
       </c>
       <c r="H32" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I32" s="1" t="s">
-        <v>16</v>
+      <c r="I32" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/s1cDNASample/s1CDNASample_BrownH_01.16.20.xlsx
+++ b/s1cDNASample/s1CDNASample_BrownH_01.16.20.xlsx
@@ -43,7 +43,7 @@
     <t xml:space="preserve">polyAIsolationProtocol</t>
   </si>
   <si>
-    <t xml:space="preserve">s1Protocol</t>
+    <t xml:space="preserve">s1cDNAProtocol</t>
   </si>
   <si>
     <t xml:space="preserve">roboticS1Prep</t>
@@ -64,10 +64,10 @@
     <t xml:space="preserve">01.16.20</t>
   </si>
   <si>
-    <t xml:space="preserve">NEBNextPoly(A)E7490L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E7420</t>
+    <t xml:space="preserve">E7490L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E7420L</t>
   </si>
   <si>
     <t xml:space="preserve">random</t>
@@ -307,7 +307,7 @@
   <dimension ref="A1:Z32"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2:G32"/>
+      <selection pane="topLeft" activeCell="H1" activeCellId="0" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -390,7 +390,8 @@
       <c r="H2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="5" t="b">
+      <c r="I2" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J2" s="1" t="s">
@@ -438,7 +439,8 @@
       <c r="H3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="5" t="b">
+      <c r="I3" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
@@ -470,7 +472,8 @@
       <c r="H4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="5" t="b">
+      <c r="I4" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
@@ -502,7 +505,8 @@
       <c r="H5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I5" s="5" t="b">
+      <c r="I5" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J5" s="1" t="s">
@@ -534,7 +538,8 @@
       <c r="H6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I6" s="5" t="b">
+      <c r="I6" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J6" s="1" t="s">
@@ -566,7 +571,8 @@
       <c r="H7" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="5" t="b">
+      <c r="I7" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J7" s="1" t="s">
@@ -598,7 +604,8 @@
       <c r="H8" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I8" s="5" t="b">
+      <c r="I8" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J8" s="1" t="s">
@@ -630,7 +637,8 @@
       <c r="H9" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I9" s="5" t="b">
+      <c r="I9" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J9" s="1" t="s">
@@ -662,7 +670,8 @@
       <c r="H10" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I10" s="5" t="b">
+      <c r="I10" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J10" s="1" t="s">
@@ -694,7 +703,8 @@
       <c r="H11" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I11" s="5" t="b">
+      <c r="I11" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J11" s="1" t="s">
@@ -726,7 +736,8 @@
       <c r="H12" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I12" s="5" t="b">
+      <c r="I12" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J12" s="1" t="s">
@@ -758,7 +769,8 @@
       <c r="H13" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I13" s="5" t="b">
+      <c r="I13" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J13" s="1" t="s">
@@ -790,7 +802,8 @@
       <c r="H14" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I14" s="5" t="b">
+      <c r="I14" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J14" s="1" t="s">
@@ -822,7 +835,8 @@
       <c r="H15" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I15" s="5" t="b">
+      <c r="I15" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J15" s="1" t="s">
@@ -854,7 +868,8 @@
       <c r="H16" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I16" s="5" t="b">
+      <c r="I16" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J16" s="1" t="s">
@@ -886,7 +901,8 @@
       <c r="H17" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I17" s="5" t="b">
+      <c r="I17" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J17" s="1" t="s">
@@ -918,7 +934,8 @@
       <c r="H18" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I18" s="5" t="b">
+      <c r="I18" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J18" s="1" t="s">
@@ -950,7 +967,8 @@
       <c r="H19" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I19" s="5" t="b">
+      <c r="I19" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J19" s="1" t="s">
@@ -982,7 +1000,8 @@
       <c r="H20" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I20" s="5" t="b">
+      <c r="I20" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J20" s="1" t="s">
@@ -1014,7 +1033,8 @@
       <c r="H21" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I21" s="5" t="b">
+      <c r="I21" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J21" s="1" t="s">
@@ -1046,7 +1066,8 @@
       <c r="H22" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I22" s="5" t="b">
+      <c r="I22" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J22" s="1" t="s">
@@ -1078,7 +1099,8 @@
       <c r="H23" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I23" s="5" t="b">
+      <c r="I23" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J23" s="1" t="s">
@@ -1110,7 +1132,8 @@
       <c r="H24" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I24" s="5" t="b">
+      <c r="I24" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J24" s="1" t="s">
@@ -1142,7 +1165,8 @@
       <c r="H25" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I25" s="5" t="b">
+      <c r="I25" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J25" s="1" t="s">
@@ -1174,7 +1198,8 @@
       <c r="H26" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I26" s="5" t="b">
+      <c r="I26" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J26" s="1" t="s">
@@ -1206,7 +1231,8 @@
       <c r="H27" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I27" s="5" t="b">
+      <c r="I27" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J27" s="1" t="s">
@@ -1238,7 +1264,8 @@
       <c r="H28" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I28" s="5" t="b">
+      <c r="I28" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J28" s="1" t="s">
@@ -1270,7 +1297,8 @@
       <c r="H29" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I29" s="5" t="b">
+      <c r="I29" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J29" s="1" t="s">
@@ -1302,7 +1330,8 @@
       <c r="H30" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I30" s="5" t="b">
+      <c r="I30" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J30" s="1" t="s">
@@ -1334,7 +1363,8 @@
       <c r="H31" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I31" s="5" t="b">
+      <c r="I31" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J31" s="1" t="s">
@@ -1366,7 +1396,8 @@
       <c r="H32" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I32" s="5" t="b">
+      <c r="I32" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J32" s="1" t="s">

--- a/s1cDNASample/s1CDNASample_BrownH_01.16.20.xlsx
+++ b/s1cDNASample/s1CDNASample_BrownH_01.16.20.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hollybrown/database_files/s1cDNASample/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFD4771D-46DF-7145-96A0-AE034B002377}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31280255-4641-E94B-A2E0-A205E135E698}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="16380" windowHeight="8200" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="16380" windowHeight="15420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="19">
   <si>
     <t>rnaDate</t>
   </si>
@@ -85,15 +85,15 @@
   </si>
   <si>
     <t>10.14.19</t>
+  </si>
+  <si>
+    <t>False</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
-  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -147,7 +147,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -465,7 +465,7 @@
   <dimension ref="A1:Z32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C32"/>
+      <selection activeCell="I2" sqref="I2:I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -548,9 +548,8 @@
       <c r="H2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="5" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="I2" s="5" t="s">
+        <v>18</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>15</v>
@@ -597,9 +596,8 @@
       <c r="H3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="5" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="I3" s="5" t="s">
+        <v>18</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>15</v>
@@ -630,9 +628,8 @@
       <c r="H4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="5" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="I4" s="5" t="s">
+        <v>18</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>15</v>
@@ -663,9 +660,8 @@
       <c r="H5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I5" s="5" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="I5" s="5" t="s">
+        <v>18</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>15</v>
@@ -696,9 +692,8 @@
       <c r="H6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I6" s="5" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="I6" s="5" t="s">
+        <v>18</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>15</v>
@@ -729,9 +724,8 @@
       <c r="H7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I7" s="5" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="I7" s="5" t="s">
+        <v>18</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>15</v>
@@ -762,9 +756,8 @@
       <c r="H8" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="5" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="I8" s="5" t="s">
+        <v>18</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>15</v>
@@ -795,9 +788,8 @@
       <c r="H9" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I9" s="5" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="I9" s="5" t="s">
+        <v>18</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>15</v>
@@ -828,9 +820,8 @@
       <c r="H10" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I10" s="5" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="I10" s="5" t="s">
+        <v>18</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>15</v>
@@ -861,9 +852,8 @@
       <c r="H11" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I11" s="5" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="I11" s="5" t="s">
+        <v>18</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>15</v>
@@ -894,9 +884,8 @@
       <c r="H12" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I12" s="5" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="I12" s="5" t="s">
+        <v>18</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>15</v>
@@ -927,9 +916,8 @@
       <c r="H13" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I13" s="5" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="I13" s="5" t="s">
+        <v>18</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>15</v>
@@ -960,9 +948,8 @@
       <c r="H14" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I14" s="5" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="I14" s="5" t="s">
+        <v>18</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>15</v>
@@ -993,9 +980,8 @@
       <c r="H15" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I15" s="5" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="I15" s="5" t="s">
+        <v>18</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>15</v>
@@ -1026,9 +1012,8 @@
       <c r="H16" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I16" s="5" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="I16" s="5" t="s">
+        <v>18</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>15</v>
@@ -1059,9 +1044,8 @@
       <c r="H17" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I17" s="5" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="I17" s="5" t="s">
+        <v>18</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>15</v>
@@ -1092,9 +1076,8 @@
       <c r="H18" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I18" s="5" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="I18" s="5" t="s">
+        <v>18</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>15</v>
@@ -1125,9 +1108,8 @@
       <c r="H19" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I19" s="5" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="I19" s="5" t="s">
+        <v>18</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>15</v>
@@ -1158,9 +1140,8 @@
       <c r="H20" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I20" s="5" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="I20" s="5" t="s">
+        <v>18</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>15</v>
@@ -1191,9 +1172,8 @@
       <c r="H21" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I21" s="5" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="I21" s="5" t="s">
+        <v>18</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>15</v>
@@ -1224,9 +1204,8 @@
       <c r="H22" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I22" s="5" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="I22" s="5" t="s">
+        <v>18</v>
       </c>
       <c r="J22" s="1" t="s">
         <v>15</v>
@@ -1257,9 +1236,8 @@
       <c r="H23" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I23" s="5" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="I23" s="5" t="s">
+        <v>18</v>
       </c>
       <c r="J23" s="1" t="s">
         <v>15</v>
@@ -1290,9 +1268,8 @@
       <c r="H24" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I24" s="5" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="I24" s="5" t="s">
+        <v>18</v>
       </c>
       <c r="J24" s="1" t="s">
         <v>15</v>
@@ -1323,9 +1300,8 @@
       <c r="H25" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I25" s="5" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="I25" s="5" t="s">
+        <v>18</v>
       </c>
       <c r="J25" s="1" t="s">
         <v>15</v>
@@ -1356,9 +1332,8 @@
       <c r="H26" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I26" s="5" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="I26" s="5" t="s">
+        <v>18</v>
       </c>
       <c r="J26" s="1" t="s">
         <v>15</v>
@@ -1389,9 +1364,8 @@
       <c r="H27" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I27" s="5" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="I27" s="5" t="s">
+        <v>18</v>
       </c>
       <c r="J27" s="1" t="s">
         <v>15</v>
@@ -1422,9 +1396,8 @@
       <c r="H28" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I28" s="5" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="I28" s="5" t="s">
+        <v>18</v>
       </c>
       <c r="J28" s="1" t="s">
         <v>15</v>
@@ -1455,9 +1428,8 @@
       <c r="H29" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I29" s="5" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="I29" s="5" t="s">
+        <v>18</v>
       </c>
       <c r="J29" s="1" t="s">
         <v>15</v>
@@ -1488,9 +1460,8 @@
       <c r="H30" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I30" s="5" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="I30" s="5" t="s">
+        <v>18</v>
       </c>
       <c r="J30" s="1" t="s">
         <v>15</v>
@@ -1521,9 +1492,8 @@
       <c r="H31" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I31" s="5" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="I31" s="5" t="s">
+        <v>18</v>
       </c>
       <c r="J31" s="1" t="s">
         <v>15</v>
@@ -1554,9 +1524,8 @@
       <c r="H32" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I32" s="5" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="I32" s="5" t="s">
+        <v>18</v>
       </c>
       <c r="J32" s="1" t="s">
         <v>15</v>
